--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.CBD\myUpstream\upstreamInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12345"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>F12</t>
   </si>
@@ -302,11 +307,17 @@
   <si>
     <t>y2000to2004</t>
   </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -712,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -720,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,26 +979,47 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>201</v>
+      </c>
+      <c r="F15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>161</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.CBD\myUpstream\upstreamInfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12345"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="varNameInfo" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -317,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,7 +729,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="variableNames" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
   <si>
     <t>F12</t>
   </si>
@@ -128,37 +128,16 @@
     <t>F61</t>
   </si>
   <si>
-    <t>file 1 = 2005-2013</t>
-  </si>
-  <si>
-    <t>file 2 = 2014-2015 revised</t>
-  </si>
-  <si>
-    <t>file 3 = 2000-2004</t>
-  </si>
-  <si>
     <t>short text string with simple common name used in the CCB</t>
   </si>
   <si>
     <t>variable label in "file 1" files corresponding to varName</t>
   </si>
   <si>
-    <t>variable label in "file 2" files corresponding to varName</t>
-  </si>
-  <si>
     <t>starting column in "file 3" files corresponding to varName</t>
   </si>
   <si>
     <t>ending column…</t>
-  </si>
-  <si>
-    <t>indicator for 2005 - 2015 original files</t>
-  </si>
-  <si>
-    <t>indicator for 2014-2015 revised files</t>
-  </si>
-  <si>
-    <t>indicator for 2000 - 2004 text files</t>
   </si>
   <si>
     <t xml:space="preserve">Based on the text entered in Field 25, decedent's state or province of residence (use if decedent resided in a US state, US territory, or Canadian province).  Use the 2 character code from the FIPS state/province table in APPENDIX C. </t>
@@ -297,23 +276,253 @@
     <t>GEOID</t>
   </si>
   <si>
-    <t>y2005onward</t>
-  </si>
-  <si>
-    <t>y2000to2004</t>
-  </si>
-  <si>
     <t>education</t>
   </si>
   <si>
     <t>F35</t>
+  </si>
+  <si>
+    <t>mStart2</t>
+  </si>
+  <si>
+    <t>mEnd2</t>
+  </si>
+  <si>
+    <t>SFN</t>
+  </si>
+  <si>
+    <t>(include out-of-state deaths)</t>
+  </si>
+  <si>
+    <t>(no out-of-state deaths)</t>
+  </si>
+  <si>
+    <t>https://www.cdph.ca.gov/Programs/CHSI/CDPH%20Document%20Library/HIRS-Comparison%20of%20CA%20Death%20Data%20Sources.pdf</t>
+  </si>
+  <si>
+    <t>using "Dynamic" CCDF</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DSMF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2005 - 2013</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(.dat)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CCDF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2005 -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DSMF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2000-2004 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (.txt)</t>
+    </r>
+  </si>
+  <si>
+    <t>(JUST out-of-state deaths)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Static OOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2014 -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mStart</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>16 -- &gt; OOS</t>
+  </si>
+  <si>
+    <t>00 --&gt; OOS</t>
+  </si>
+  <si>
+    <t>y2005to2013</t>
+  </si>
+  <si>
+    <t>MDCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   MCP = Month Death Certificate Processed</t>
+  </si>
+  <si>
+    <t>SAME FILE FORMAT AS CCDF??</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CCMDF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2014 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Static CCDF + out-of-state deaths -- Local Registration District (sequence 129) is null/missing (or by "non-match" on SRN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   LRD = Local Registration District</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>F129</t>
+  </si>
+  <si>
+    <t>CCDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DSMF_00_04</t>
+  </si>
+  <si>
+    <t>CCDF2</t>
+  </si>
+  <si>
+    <t>MCOD (Multiple Cause of Death)</t>
+  </si>
+  <si>
+    <t>SFN is not included for Out-of-State cases so no link to other data sources (check this)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,8 +541,56 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +606,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,10 +668,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -443,11 +713,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -718,7 +999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,290 +1007,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>58</v>
       </c>
-      <c r="F2">
+      <c r="H3">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>58</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>243</v>
+      </c>
+      <c r="H6">
+        <v>247</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>243</v>
+      </c>
+      <c r="K6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>181</v>
+      </c>
+      <c r="H7">
+        <v>182</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14">
+        <v>156</v>
+      </c>
+      <c r="K7" s="14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>156</v>
+      </c>
+      <c r="H8">
+        <v>157</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
+        <v>157</v>
+      </c>
+      <c r="K8" s="14">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>126</v>
+      </c>
+      <c r="H9">
+        <v>131</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <v>77</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>77</v>
+      </c>
+      <c r="K11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>78</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="H12">
+        <v>79</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>78</v>
+      </c>
+      <c r="K12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>66</v>
+      </c>
+      <c r="K13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>242</v>
+      </c>
+      <c r="H14">
+        <v>242</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>242</v>
+      </c>
+      <c r="K14">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>174</v>
+      </c>
+      <c r="H15">
+        <v>174</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>174</v>
+      </c>
+      <c r="K15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>243</v>
-      </c>
-      <c r="F5">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>181</v>
-      </c>
-      <c r="F6">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>156</v>
-      </c>
-      <c r="F7">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>126</v>
-      </c>
-      <c r="F8">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F10">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>78</v>
-      </c>
-      <c r="F11">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>66</v>
-      </c>
-      <c r="F12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>242</v>
-      </c>
-      <c r="F13">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>201</v>
+      </c>
+      <c r="H16">
+        <v>201</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>201</v>
+      </c>
+      <c r="K16">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>161</v>
+      </c>
+      <c r="H17">
+        <v>165</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>161</v>
+      </c>
+      <c r="K17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>174</v>
-      </c>
-      <c r="F14">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>201</v>
-      </c>
-      <c r="F15">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>161</v>
-      </c>
-      <c r="F16">
-        <v>165</v>
+      <c r="K18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>172</v>
+      </c>
+      <c r="K19">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1020,84 +1564,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C17:C18"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
     <col min="3" max="3" width="108.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" display="https://www.cdph.ca.gov/Programs/CHSI/CDPH Document Library/HIRS-Comparison of CA Death Data Sources.pdf"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1105,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -1468,184 +2086,184 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I24" s="2">
         <v>60</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
       <c r="H25" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I25" s="2">
         <v>61</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="140.25" x14ac:dyDescent="0.25">
       <c r="H26" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I26" s="12">
         <v>62</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="H27" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I27" s="2">
         <v>63</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="102" x14ac:dyDescent="0.25">
       <c r="H28" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I28" s="2">
         <v>64</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="140.25" x14ac:dyDescent="0.25">
       <c r="H29" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I29" s="2">
         <v>65</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="8:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="H33" s="14" t="s">
-        <v>81</v>
+      <c r="H33" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="I33" s="2">
         <v>68</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="8:12" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="H34" s="14"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="6">
         <v>69</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="8:12" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="H35" s="14"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="2">
         <v>70</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="5" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="36" spans="8:12" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="H36" s="14"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="2">
         <v>71</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.CBD\myUpstream\upstreamInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CCB\CCB Project\0.CCB\myUpstream\upstreamInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076470E7-79E2-4043-A912-A7D9D57082E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variableNames" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
   <si>
     <t>F12</t>
   </si>
@@ -522,11 +523,17 @@
   <si>
     <t>SFN is not included for Out-of-State cases so no link to other data sources (check this)</t>
   </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,10 +1018,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1132,101 +1141,93 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>70</v>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>70</v>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
+      <c r="C6" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>243</v>
-      </c>
-      <c r="H6">
-        <v>247</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>243</v>
-      </c>
-      <c r="K6">
-        <v>247</v>
+      <c r="E6" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="H7">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="14">
-        <v>156</v>
-      </c>
-      <c r="K7" s="14">
-        <v>156</v>
+      <c r="J7">
+        <v>243</v>
+      </c>
+      <c r="K7">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
@@ -1234,24 +1235,24 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <v>181</v>
+      </c>
+      <c r="H8">
+        <v>182</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
         <v>156</v>
       </c>
-      <c r="H8">
-        <v>157</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
-        <v>157</v>
-      </c>
       <c r="K8" s="14">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
@@ -1259,303 +1260,328 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H9">
-        <v>131</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
+        <v>157</v>
+      </c>
+      <c r="K9" s="14">
+        <v>158</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>131</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>77</v>
-      </c>
-      <c r="H11">
-        <v>77</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>77</v>
-      </c>
-      <c r="K11">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H13">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="H14">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>242</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="H15">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="K15">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="H16">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="K16">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="H17">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="K17">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>161</v>
+      </c>
+      <c r="H18">
+        <v>165</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>96</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>172</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>173</v>
       </c>
     </row>
@@ -1566,7 +1592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView topLeftCell="B5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1715,7 +1741,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="https://www.cdph.ca.gov/Programs/CHSI/CDPH Document Library/HIRS-Comparison of CA Death Data Sources.pdf"/>
+    <hyperlink ref="B23" r:id="rId1" display="https://www.cdph.ca.gov/Programs/CHSI/CDPH Document Library/HIRS-Comparison of CA Death Data Sources.pdf" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1723,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CCB\CCB Project\0.CCB\myUpstream\upstreamInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myUpstream\upstreamInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076470E7-79E2-4043-A912-A7D9D57082E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="variableNames" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
   <si>
     <t>F12</t>
   </si>
@@ -529,11 +528,23 @@
   <si>
     <t>F25</t>
   </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1018,11 +1029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,126 +1169,110 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
+      <c r="C6" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>70</v>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>243</v>
-      </c>
-      <c r="H7">
-        <v>247</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>243</v>
-      </c>
-      <c r="K7">
-        <v>247</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>181</v>
-      </c>
-      <c r="H8">
-        <v>182</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
-        <v>156</v>
-      </c>
-      <c r="K8" s="14">
-        <v>156</v>
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="H9">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="14">
-        <v>157</v>
-      </c>
-      <c r="K9" s="14">
-        <v>158</v>
+      <c r="J9">
+        <v>243</v>
+      </c>
+      <c r="K9">
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
@@ -1285,34 +1280,49 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="H10">
-        <v>131</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
+        <v>156</v>
+      </c>
+      <c r="K10" s="14">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>156</v>
+      </c>
+      <c r="H11">
+        <v>157</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
+        <v>157</v>
+      </c>
+      <c r="K11" s="14">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
@@ -1320,268 +1330,303 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="H12">
-        <v>77</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>77</v>
-      </c>
-      <c r="K12">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>78</v>
-      </c>
-      <c r="H13">
-        <v>79</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>78</v>
-      </c>
-      <c r="K13">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K14">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="H15">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="K15">
-        <v>242</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="H16">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>174</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="H17">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="K17">
-        <v>201</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H18">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="K18">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" t="s">
-        <v>106</v>
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>201</v>
+      </c>
+      <c r="H19">
+        <v>201</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>161</v>
+      </c>
+      <c r="H20">
+        <v>165</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>161</v>
+      </c>
+      <c r="K20">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>96</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>172</v>
       </c>
-      <c r="K20">
+      <c r="K22">
         <v>173</v>
       </c>
     </row>
@@ -1592,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView topLeftCell="B5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1741,7 +1786,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="https://www.cdph.ca.gov/Programs/CHSI/CDPH Document Library/HIRS-Comparison of CA Death Data Sources.pdf" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B23" r:id="rId1" display="https://www.cdph.ca.gov/Programs/CHSI/CDPH Document Library/HIRS-Comparison of CA Death Data Sources.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1749,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
   <si>
     <t>F12</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>F52</t>
+  </si>
+  <si>
+    <t>placeOfDeath</t>
+  </si>
+  <si>
+    <t>F125</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,6 +1634,23 @@
       </c>
       <c r="K22">
         <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>64</v>
       </c>

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myUpstream\upstreamInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349257D6-4721-4491-A2F1-6BC4052B0482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="27570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variableNames" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
   <si>
     <t>F12</t>
   </si>
@@ -546,11 +547,29 @@
   <si>
     <t>F125</t>
   </si>
+  <si>
+    <t>race1</t>
+  </si>
+  <si>
+    <t>race2</t>
+  </si>
+  <si>
+    <t>race3</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1035,11 +1054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,198 +1477,249 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>242</v>
-      </c>
-      <c r="H17">
-        <v>242</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>242</v>
-      </c>
-      <c r="K17">
-        <v>242</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>174</v>
-      </c>
-      <c r="H18">
-        <v>174</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>174</v>
-      </c>
-      <c r="K18">
-        <v>174</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>201</v>
-      </c>
-      <c r="H19">
-        <v>201</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>201</v>
-      </c>
-      <c r="K19">
-        <v>201</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="H20">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="K20">
-        <v>165</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>174</v>
+      </c>
+      <c r="H21">
+        <v>174</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>201</v>
+      </c>
+      <c r="H22">
+        <v>201</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="K22">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>161</v>
+      </c>
+      <c r="H23">
+        <v>165</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>161</v>
+      </c>
+      <c r="K23">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>172</v>
+      </c>
+      <c r="K25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>117</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1660,7 +1730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView topLeftCell="B5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1809,7 +1879,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="https://www.cdph.ca.gov/Programs/CHSI/CDPH Document Library/HIRS-Comparison of CA Death Data Sources.pdf"/>
+    <hyperlink ref="B23" r:id="rId1" display="https://www.cdph.ca.gov/Programs/CHSI/CDPH Document Library/HIRS-Comparison of CA Death Data Sources.pdf" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1817,7 +1887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myUpstream\upstreamInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349257D6-4721-4491-A2F1-6BC4052B0482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CF7D1-09BF-4F7A-A6DD-5D780AB0D03E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="27570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variableNames" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
   <si>
     <t>F12</t>
   </si>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t>F47</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>hispanicGroup</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,128 +1604,145 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>201</v>
-      </c>
-      <c r="H22">
-        <v>201</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>201</v>
-      </c>
-      <c r="K22">
-        <v>201</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="H23">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="K23">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>106</v>
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>161</v>
+      </c>
+      <c r="H24">
+        <v>165</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="K25">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>172</v>
+      </c>
+      <c r="K26">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>117</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>118</v>
       </c>
     </row>

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myUpstream\upstreamInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CF7D1-09BF-4F7A-A6DD-5D780AB0D03E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7004AB-EC0A-472A-A5F3-877D89D57504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variableNames" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
   <si>
     <t>F12</t>
   </si>
@@ -503,9 +503,6 @@
     <t>LRD</t>
   </si>
   <si>
-    <t>F129</t>
-  </si>
-  <si>
     <t>CCDF</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
     <t>DSMF_00_04</t>
   </si>
   <si>
-    <t>CCDF2</t>
-  </si>
-  <si>
     <t>MCOD (Multiple Cause of Death)</t>
   </si>
   <si>
@@ -570,6 +564,9 @@
   </si>
   <si>
     <t>hispanicGroup</t>
+  </si>
+  <si>
+    <t>countyFIPS_backup</t>
   </si>
 </sst>
 </file>
@@ -1061,57 +1058,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1121,32 +1112,26 @@
       <c r="C2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
+      <c r="D2" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1159,80 +1144,56 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
+      <c r="E3">
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>58</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>61</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>58</v>
-      </c>
-      <c r="K3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>111</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1242,14 +1203,8 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1259,491 +1214,408 @@
       <c r="C8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>243</v>
       </c>
-      <c r="H9">
+      <c r="F10">
         <v>247</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>243</v>
       </c>
-      <c r="K9">
+      <c r="I10">
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="C11" s="1"/>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>181</v>
       </c>
-      <c r="H10">
+      <c r="F11">
         <v>182</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
         <v>156</v>
       </c>
-      <c r="K10" s="14">
+      <c r="I11" s="14">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="C12" s="1"/>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>156</v>
       </c>
-      <c r="H11">
+      <c r="F12">
         <v>157</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
         <v>157</v>
       </c>
-      <c r="K11" s="14">
+      <c r="I12" s="14">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="C13" s="1"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>126</v>
       </c>
-      <c r="H12">
+      <c r="F13">
         <v>131</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="C15" s="1"/>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>77</v>
       </c>
-      <c r="H14">
+      <c r="F15">
         <v>77</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>77</v>
       </c>
-      <c r="K14">
+      <c r="I15">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>78</v>
       </c>
-      <c r="H15">
+      <c r="F16">
         <v>79</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>78</v>
       </c>
-      <c r="K15">
+      <c r="I16">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>66</v>
       </c>
-      <c r="H16">
+      <c r="F17">
         <v>66</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>66</v>
       </c>
-      <c r="K16">
+      <c r="I17">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>119</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>242</v>
+      </c>
+      <c r="F21">
+        <v>242</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>242</v>
+      </c>
+      <c r="I21">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>174</v>
+      </c>
+      <c r="F22">
+        <v>174</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>174</v>
+      </c>
+      <c r="I22">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>242</v>
-      </c>
-      <c r="H20">
-        <v>242</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>242</v>
-      </c>
-      <c r="K20">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>201</v>
+      </c>
+      <c r="F24">
+        <v>201</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>201</v>
+      </c>
+      <c r="I24">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>161</v>
+      </c>
+      <c r="F25">
+        <v>165</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>161</v>
+      </c>
+      <c r="I25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>7</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>174</v>
-      </c>
-      <c r="H21">
-        <v>174</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>174</v>
-      </c>
-      <c r="K21">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>201</v>
-      </c>
-      <c r="H23">
-        <v>201</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>201</v>
-      </c>
-      <c r="K23">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>161</v>
-      </c>
-      <c r="H24">
-        <v>165</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>161</v>
-      </c>
-      <c r="K24">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>7</v>
-      </c>
-      <c r="K25">
+      <c r="I26">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>96</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>172</v>
       </c>
-      <c r="K26">
+      <c r="I27">
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>118</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1889,10 +1761,10 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myUpstream\upstreamInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7004AB-EC0A-472A-A5F3-877D89D57504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB3280F-3F05-4C62-9A93-B3BB563A1636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variableNames" sheetId="1" r:id="rId1"/>
     <sheet name="varNameInfo" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
   <si>
     <t>F12</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>countyFIPS_backup</t>
+  </si>
+  <si>
+    <t>birthCountry</t>
+  </si>
+  <si>
+    <t>F29</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,448 +1179,459 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>70</v>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>243</v>
-      </c>
-      <c r="F10">
-        <v>247</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>243</v>
-      </c>
-      <c r="I10">
-        <v>247</v>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="F11">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="14">
-        <v>156</v>
-      </c>
-      <c r="I11" s="14">
-        <v>156</v>
+      <c r="H11">
+        <v>243</v>
+      </c>
+      <c r="I11">
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
+        <v>181</v>
+      </c>
+      <c r="F12">
+        <v>182</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
         <v>156</v>
       </c>
-      <c r="F12">
-        <v>157</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14">
-        <v>157</v>
-      </c>
       <c r="I12" s="14">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F13">
-        <v>131</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>157</v>
+      </c>
+      <c r="I13" s="14">
+        <v>158</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>126</v>
+      </c>
+      <c r="F14">
+        <v>131</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>77</v>
-      </c>
-      <c r="F15">
-        <v>77</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>77</v>
-      </c>
-      <c r="I15">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I17">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>66</v>
+      </c>
+      <c r="I18">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>242</v>
-      </c>
-      <c r="F21">
-        <v>242</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>242</v>
-      </c>
-      <c r="I21">
-        <v>242</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="F22">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="I22">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>174</v>
+      </c>
+      <c r="F23">
+        <v>174</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>174</v>
+      </c>
+      <c r="I23">
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>201</v>
-      </c>
-      <c r="F24">
-        <v>201</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>201</v>
-      </c>
-      <c r="I24">
-        <v>201</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="F25">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="I25">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>161</v>
+      </c>
+      <c r="F26">
+        <v>165</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>172</v>
+      </c>
+      <c r="I28">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>115</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
     </row>

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myUpstream\upstreamInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB3280F-3F05-4C62-9A93-B3BB563A1636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC09BE-FE1B-4328-B431-E068417A11F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variableNames" sheetId="1" r:id="rId1"/>
     <sheet name="varNameInfo" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
   <si>
     <t>F12</t>
   </si>
@@ -573,6 +573,30 @@
   </si>
   <si>
     <t>F29</t>
+  </si>
+  <si>
+    <t>cityText</t>
+  </si>
+  <si>
+    <t>cityCode</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>streetNumber</t>
+  </si>
+  <si>
+    <t>streetName</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
   </si>
 </sst>
 </file>
@@ -729,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -746,13 +770,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -761,14 +785,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1064,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,19 +1130,19 @@
       <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="20">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="1">
@@ -1228,7 +1246,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1239,399 +1257,443 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>243</v>
-      </c>
-      <c r="F11">
-        <v>247</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>243</v>
-      </c>
-      <c r="I11">
-        <v>247</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>181</v>
-      </c>
-      <c r="F12">
-        <v>182</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14">
-        <v>156</v>
-      </c>
-      <c r="I12" s="14">
-        <v>156</v>
+        <v>133</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>156</v>
-      </c>
-      <c r="F13">
-        <v>157</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14">
-        <v>157</v>
-      </c>
-      <c r="I13" s="14">
-        <v>158</v>
+        <v>128</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>126</v>
-      </c>
-      <c r="F14">
+        <v>129</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>243</v>
+      </c>
+      <c r="F15">
+        <v>247</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>243</v>
+      </c>
+      <c r="I15">
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="F16">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16">
-        <v>77</v>
-      </c>
-      <c r="I16">
-        <v>77</v>
+      <c r="H16" s="12">
+        <v>156</v>
+      </c>
+      <c r="I16" s="12">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="F17">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17">
-        <v>78</v>
-      </c>
-      <c r="I17">
-        <v>79</v>
+      <c r="H17" s="12">
+        <v>157</v>
+      </c>
+      <c r="I17" s="12">
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="F18">
-        <v>66</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>66</v>
-      </c>
-      <c r="I18">
-        <v>66</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>77</v>
+      </c>
+      <c r="F20">
+        <v>77</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>78</v>
+      </c>
+      <c r="F21">
+        <v>79</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>78</v>
+      </c>
+      <c r="I21">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="F22">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="I22">
-        <v>242</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>174</v>
-      </c>
-      <c r="F23">
-        <v>174</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>174</v>
-      </c>
-      <c r="I23">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>201</v>
-      </c>
-      <c r="F25">
-        <v>201</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>201</v>
-      </c>
-      <c r="I25">
-        <v>201</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="F26">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="I26">
-        <v>165</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>174</v>
+      </c>
+      <c r="F27">
+        <v>174</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>172</v>
-      </c>
-      <c r="I28">
-        <v>173</v>
+        <v>124</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>201</v>
+      </c>
+      <c r="F29">
+        <v>201</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>201</v>
+      </c>
+      <c r="I29">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>161</v>
+      </c>
+      <c r="F30">
+        <v>165</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>161</v>
+      </c>
+      <c r="I30">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>172</v>
+      </c>
+      <c r="I32">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>115</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1656,7 +1718,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C1" t="s">
@@ -1664,7 +1726,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C3" t="s">
@@ -1675,7 +1737,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
@@ -1683,7 +1745,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C7" t="s">
@@ -1694,7 +1756,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1702,7 +1764,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
@@ -1710,7 +1772,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C11" t="s">
@@ -1721,7 +1783,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C12" t="s">
@@ -1729,7 +1791,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C13" t="s">
@@ -1737,26 +1799,26 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C17" t="s">
@@ -1772,7 +1834,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1785,7 +1847,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2219,7 +2281,7 @@
       <c r="H26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>62</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -2250,7 +2312,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="102" x14ac:dyDescent="0.25">
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>68</v>
       </c>
       <c r="I28" s="2">
@@ -2284,7 +2346,7 @@
       </c>
     </row>
     <row r="33" spans="8:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="20" t="s">
         <v>74</v>
       </c>
       <c r="I33" s="2">
@@ -2301,7 +2363,7 @@
       </c>
     </row>
     <row r="34" spans="8:12" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="H34" s="22"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="6">
         <v>69</v>
       </c>
@@ -2316,7 +2378,7 @@
       </c>
     </row>
     <row r="35" spans="8:12" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="H35" s="22"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="2">
         <v>70</v>
       </c>
@@ -2331,7 +2393,7 @@
       </c>
     </row>
     <row r="36" spans="8:12" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="H36" s="22"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="2">
         <v>71</v>
       </c>

--- a/myUpstream/upstreamInfo/death.File.Vars.xlsx
+++ b/myUpstream/upstreamInfo/death.File.Vars.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myUpstream\upstreamInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC09BE-FE1B-4328-B431-E068417A11F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551EE74B-01DE-4321-817D-A6A5D0AA2B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="3840" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variableNames" sheetId="1" r:id="rId1"/>
     <sheet name="varNameInfo" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="139">
   <si>
     <t>F12</t>
   </si>
@@ -536,12 +547,6 @@
     <t>F52</t>
   </si>
   <si>
-    <t>placeOfDeath</t>
-  </si>
-  <si>
-    <t>F125</t>
-  </si>
-  <si>
     <t>race1</t>
   </si>
   <si>
@@ -597,6 +602,21 @@
   </si>
   <si>
     <t>F56</t>
+  </si>
+  <si>
+    <t>countyCode_placeOfDeath</t>
+  </si>
+  <si>
+    <t>stateCode_placeOfDeath</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>ageType</t>
+  </si>
+  <si>
+    <t>F17</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,16 +1214,25 @@
       <c r="C4" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1252,7 +1281,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1263,46 +1292,73 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>135</v>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>287</v>
+      </c>
+      <c r="I12">
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>130</v>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>337</v>
+      </c>
+      <c r="I13">
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>131</v>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>184</v>
+      </c>
+      <c r="I14">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1412,289 +1468,359 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>77</v>
-      </c>
-      <c r="F20">
-        <v>77</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>77</v>
-      </c>
-      <c r="I20">
-        <v>77</v>
+        <v>137</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F22">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I22">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>66</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>121</v>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>175</v>
+      </c>
+      <c r="I24">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>122</v>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>177</v>
+      </c>
+      <c r="I25">
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>242</v>
-      </c>
-      <c r="F26">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="I26">
-        <v>242</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="F27">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="I27">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>174</v>
+      </c>
+      <c r="F28">
+        <v>174</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>174</v>
+      </c>
+      <c r="I28">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>201</v>
-      </c>
-      <c r="F29">
-        <v>201</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>201</v>
-      </c>
-      <c r="I29">
-        <v>201</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="F30">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="I30">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>161</v>
+      </c>
+      <c r="F31">
+        <v>165</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="I31">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>96</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>172</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>116</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>132</v>
+      </c>
+      <c r="I34">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>132</v>
+      </c>
+      <c r="F35">
+        <v>133</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>133</v>
+      </c>
+      <c r="I35">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
